--- a/data-raw/African_Universities.xlsx
+++ b/data-raw/African_Universities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1e-cs_DpDm17h7hw_G4YYeamlwqW0XJK7\2022-msc-sem-proj-sigrissa\data\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sskorik\Documents\gitrepos\universityrankingafrica\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4BA655-5C35-4C12-A379-72E9C46AEF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E9E11-7352-4C94-A145-61C6F0D291BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Universities" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3169" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="671">
   <si>
     <t>Country</t>
   </si>
@@ -1870,9 +1870,6 @@
   </si>
   <si>
     <t>2023 Sudan conflict (start date 15 April 2023)</t>
-  </si>
-  <si>
-    <t>Check Complete</t>
   </si>
   <si>
     <t>15.06.2023</t>
@@ -2219,7 +2216,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2369,9 +2366,6 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -2533,41 +2527,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AA142" totalsRowShown="0">
-  <autoFilter ref="A1:AA142" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:Z142" totalsRowShown="0">
+  <autoFilter ref="A1:Z142" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z142">
     <sortCondition ref="K1:K142"/>
   </sortState>
-  <tableColumns count="27">
+  <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="University"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Country"/>
     <tableColumn id="21" xr3:uid="{9334572C-5B1F-49A6-A752-16FDFA33AB75}" name="City"/>
     <tableColumn id="24" xr3:uid="{D85019B2-29F8-4023-A949-8A73CE13AC23}" name="ROR entry correct"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="URL" dataCellStyle="Hyperlink"/>
-    <tableColumn id="27" xr3:uid="{D86C63DF-2037-43E7-B6CF-7FCA1575DB57}" name="Website Secure" dataDxfId="31" dataCellStyle="Hyperlink"/>
-    <tableColumn id="23" xr3:uid="{1227EBD5-1965-4A31-B226-D6A2C1DCA303}" name="Website up to date" dataDxfId="30" dataCellStyle="Hyperlink"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Website Function" dataDxfId="29" dataCellStyle="Hyperlink"/>
-    <tableColumn id="25" xr3:uid="{4F8D5E74-1133-49A4-9A00-E0264DCEB309}" name="Website Language" dataDxfId="28" dataCellStyle="Hyperlink"/>
-    <tableColumn id="18" xr3:uid="{52EA22DE-E112-47E4-A9F5-9E7C20BBFA99}" name="Colonial Power at Independence" dataDxfId="27" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Rank Africa" dataDxfId="26" dataCellStyle="Hyperlink"/>
+    <tableColumn id="27" xr3:uid="{D86C63DF-2037-43E7-B6CF-7FCA1575DB57}" name="Website Secure" dataDxfId="30" dataCellStyle="Hyperlink"/>
+    <tableColumn id="23" xr3:uid="{1227EBD5-1965-4A31-B226-D6A2C1DCA303}" name="Website up to date" dataDxfId="29" dataCellStyle="Hyperlink"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Website Function" dataDxfId="28" dataCellStyle="Hyperlink"/>
+    <tableColumn id="25" xr3:uid="{4F8D5E74-1133-49A4-9A00-E0264DCEB309}" name="Website Language" dataDxfId="27" dataCellStyle="Hyperlink"/>
+    <tableColumn id="18" xr3:uid="{52EA22DE-E112-47E4-A9F5-9E7C20BBFA99}" name="Colonial Power at Independence" dataDxfId="26" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Rank Africa" dataDxfId="25" dataCellStyle="Hyperlink"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Rank World"/>
     <tableColumn id="19" xr3:uid="{BF56AC2F-4C89-4DAF-BA7D-0132F73A347D}" name="Impact Rank"/>
     <tableColumn id="17" xr3:uid="{547F6968-757C-4258-AD77-19480213CD85}" name="Openness Rank"/>
     <tableColumn id="16" xr3:uid="{F4D21280-C392-42B2-91D8-A4892B6DCDF9}" name="Excellence Rank"/>
-    <tableColumn id="20" xr3:uid="{B5E4A962-1413-40B3-921F-95D416046856}" name="Academic System used" dataDxfId="25" dataCellStyle="Hyperlink"/>
+    <tableColumn id="20" xr3:uid="{B5E4A962-1413-40B3-921F-95D416046856}" name="Academic System used" dataDxfId="24" dataCellStyle="Hyperlink"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Number of Engineering Courses"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Years of study"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Online application"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="International Students"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Yearly fee" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Yearly fee" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Masters Programme"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="online payment"/>
-    <tableColumn id="26" xr3:uid="{AFEAED89-E5A7-47F3-A31B-4E38D40C56FA}" name="Number of Students" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{AFEAED89-E5A7-47F3-A31B-4E38D40C56FA}" name="Number of Students" dataDxfId="22"/>
     <tableColumn id="8" xr3:uid="{573A29FE-D344-468A-9D0A-8AF39D464733}" name="access date"/>
     <tableColumn id="22" xr3:uid="{970DF38B-04CA-4249-957D-036D5953BDAD}" name="Remarks"/>
-    <tableColumn id="7" xr3:uid="{84A86A40-6733-4808-88B7-3E132D2DCBA2}" name="Check Complete" dataDxfId="22">
-      <calculatedColumnFormula>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2948,11 +2939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA142"/>
+  <dimension ref="A1:Z142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2981,10 +2972,9 @@
     <col min="24" max="24" width="17.5546875" style="15" customWidth="1"/>
     <col min="25" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -3063,11 +3053,8 @@
       <c r="Z1" t="s">
         <v>525</v>
       </c>
-      <c r="AA1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3143,12 +3130,8 @@
       <c r="Y2" t="s">
         <v>601</v>
       </c>
-      <c r="AA2">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -3224,12 +3207,8 @@
       <c r="Y3" t="s">
         <v>601</v>
       </c>
-      <c r="AA3">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -3305,12 +3284,8 @@
       <c r="Y4" t="s">
         <v>601</v>
       </c>
-      <c r="AA4">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -3386,12 +3361,8 @@
       <c r="Y5" t="s">
         <v>504</v>
       </c>
-      <c r="AA5">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -3467,12 +3438,8 @@
       <c r="Y6" t="s">
         <v>504</v>
       </c>
-      <c r="AA6">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -3548,12 +3515,8 @@
       <c r="Y7" t="s">
         <v>504</v>
       </c>
-      <c r="AA7">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -3627,14 +3590,10 @@
         <v>558</v>
       </c>
       <c r="Y8" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA8">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -3710,12 +3669,8 @@
       <c r="Y9" t="s">
         <v>576</v>
       </c>
-      <c r="AA9">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3791,12 +3746,8 @@
       <c r="Y10" t="s">
         <v>573</v>
       </c>
-      <c r="AA10">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3872,12 +3823,8 @@
       <c r="Y11" t="s">
         <v>589</v>
       </c>
-      <c r="AA11">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -3953,12 +3900,8 @@
       <c r="Y12" t="s">
         <v>582</v>
       </c>
-      <c r="AA12">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -4034,12 +3977,8 @@
       <c r="Y13" t="s">
         <v>554</v>
       </c>
-      <c r="AA13">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -4115,12 +4054,8 @@
       <c r="Y14" t="s">
         <v>591</v>
       </c>
-      <c r="AA14">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -4196,12 +4131,8 @@
       <c r="Y15" t="s">
         <v>591</v>
       </c>
-      <c r="AA15">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -4277,12 +4208,8 @@
       <c r="Y16" t="s">
         <v>573</v>
       </c>
-      <c r="AA16">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -4358,12 +4285,8 @@
       <c r="Y17" t="s">
         <v>582</v>
       </c>
-      <c r="AA17">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -4442,12 +4365,8 @@
       <c r="Z18" t="s">
         <v>604</v>
       </c>
-      <c r="AA18">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -4523,12 +4442,8 @@
       <c r="Y19" t="s">
         <v>582</v>
       </c>
-      <c r="AA19">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -4602,14 +4517,10 @@
         <v>558</v>
       </c>
       <c r="Y20" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA20">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -4685,12 +4596,8 @@
       <c r="Y21" t="s">
         <v>601</v>
       </c>
-      <c r="AA21">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -4766,12 +4673,8 @@
       <c r="Y22" t="s">
         <v>573</v>
       </c>
-      <c r="AA22">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -4850,12 +4753,8 @@
       <c r="Z23" t="s">
         <v>578</v>
       </c>
-      <c r="AA23">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -4929,14 +4828,10 @@
         <v>558</v>
       </c>
       <c r="Y24" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA24">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -5012,12 +4907,8 @@
       <c r="Y25" t="s">
         <v>553</v>
       </c>
-      <c r="AA25">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -5096,12 +4987,8 @@
       <c r="Z26" t="s">
         <v>604</v>
       </c>
-      <c r="AA26">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5175,14 +5062,10 @@
         <v>30854</v>
       </c>
       <c r="Y27" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA27">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -5258,12 +5141,8 @@
       <c r="Y28" t="s">
         <v>507</v>
       </c>
-      <c r="AA28">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5337,14 +5216,10 @@
         <v>52830</v>
       </c>
       <c r="Y29" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA29">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>138</v>
       </c>
@@ -5418,14 +5293,10 @@
         <v>558</v>
       </c>
       <c r="Y30" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA30">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -5499,14 +5370,10 @@
         <v>29899</v>
       </c>
       <c r="Y31" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA31">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -5582,12 +5449,8 @@
       <c r="Y32" t="s">
         <v>582</v>
       </c>
-      <c r="AA32">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -5664,12 +5527,8 @@
       <c r="Y33" t="s">
         <v>576</v>
       </c>
-      <c r="AA33">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -5743,14 +5602,10 @@
         <v>39391</v>
       </c>
       <c r="Y34" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA34">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -5826,12 +5681,8 @@
       <c r="Y35" t="s">
         <v>601</v>
       </c>
-      <c r="AA35">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -5907,12 +5758,8 @@
       <c r="Y36" t="s">
         <v>591</v>
       </c>
-      <c r="AA36">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>165</v>
       </c>
@@ -5988,12 +5835,8 @@
       <c r="Y37" t="s">
         <v>591</v>
       </c>
-      <c r="AA37">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>169</v>
       </c>
@@ -6072,12 +5915,8 @@
       <c r="Z38" t="s">
         <v>555</v>
       </c>
-      <c r="AA38">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>172</v>
       </c>
@@ -6153,12 +5992,8 @@
       <c r="Y39" t="s">
         <v>560</v>
       </c>
-      <c r="AA39">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -6237,12 +6072,8 @@
       <c r="Z40" t="s">
         <v>581</v>
       </c>
-      <c r="AA40">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -6318,12 +6149,8 @@
       <c r="Y41" t="s">
         <v>601</v>
       </c>
-      <c r="AA41">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>181</v>
       </c>
@@ -6397,14 +6224,10 @@
         <v>558</v>
       </c>
       <c r="Y42" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA42">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>183</v>
       </c>
@@ -6478,14 +6301,10 @@
         <v>33000</v>
       </c>
       <c r="Y43" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA43">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -6561,12 +6380,8 @@
       <c r="Y44" t="s">
         <v>560</v>
       </c>
-      <c r="AA44">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -6642,12 +6457,8 @@
       <c r="Y45" t="s">
         <v>507</v>
       </c>
-      <c r="AA45">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -6723,12 +6534,8 @@
       <c r="Y46" t="s">
         <v>559</v>
       </c>
-      <c r="AA46">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>195</v>
       </c>
@@ -6807,12 +6614,8 @@
       <c r="Z47" t="s">
         <v>198</v>
       </c>
-      <c r="AA47">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -6888,12 +6691,8 @@
       <c r="Y48" t="s">
         <v>582</v>
       </c>
-      <c r="AA48">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>201</v>
       </c>
@@ -6967,17 +6766,13 @@
         <v>30206</v>
       </c>
       <c r="Y49" t="s">
+        <v>605</v>
+      </c>
+      <c r="Z49" t="s">
         <v>606</v>
       </c>
-      <c r="Z49" t="s">
-        <v>607</v>
-      </c>
-      <c r="AA49">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>203</v>
       </c>
@@ -7053,12 +6848,8 @@
       <c r="Y50" t="s">
         <v>560</v>
       </c>
-      <c r="AA50">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -7134,12 +6925,8 @@
       <c r="Y51" t="s">
         <v>553</v>
       </c>
-      <c r="AA51">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -7215,12 +7002,8 @@
       <c r="Y52" t="s">
         <v>576</v>
       </c>
-      <c r="AA52">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -7296,12 +7079,8 @@
       <c r="Y53" t="s">
         <v>560</v>
       </c>
-      <c r="AA53">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>215</v>
       </c>
@@ -7377,12 +7156,8 @@
       <c r="Y54" t="s">
         <v>576</v>
       </c>
-      <c r="AA54">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>218</v>
       </c>
@@ -7461,12 +7236,8 @@
       <c r="Z55" t="s">
         <v>604</v>
       </c>
-      <c r="AA55">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -7542,12 +7313,8 @@
       <c r="Y56" t="s">
         <v>582</v>
       </c>
-      <c r="AA56">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -7621,14 +7388,10 @@
         <v>558</v>
       </c>
       <c r="Y57" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA57">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -7704,12 +7467,8 @@
       <c r="Y58" t="s">
         <v>560</v>
       </c>
-      <c r="AA58">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>230</v>
       </c>
@@ -7785,12 +7544,8 @@
       <c r="Y59" t="s">
         <v>554</v>
       </c>
-      <c r="AA59">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>233</v>
       </c>
@@ -7866,12 +7621,8 @@
       <c r="Y60" t="s">
         <v>560</v>
       </c>
-      <c r="AA60">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>236</v>
       </c>
@@ -7947,12 +7698,8 @@
       <c r="Y61" t="s">
         <v>582</v>
       </c>
-      <c r="AA61">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>239</v>
       </c>
@@ -8028,12 +7775,8 @@
       <c r="Y62" t="s">
         <v>576</v>
       </c>
-      <c r="AA62">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>242</v>
       </c>
@@ -8107,14 +7850,10 @@
         <v>558</v>
       </c>
       <c r="Y63" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA63">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>245</v>
       </c>
@@ -8190,12 +7929,8 @@
       <c r="Y64" t="s">
         <v>576</v>
       </c>
-      <c r="AA64">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>248</v>
       </c>
@@ -8271,12 +8006,8 @@
       <c r="Y65" t="s">
         <v>560</v>
       </c>
-      <c r="AA65">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>250</v>
       </c>
@@ -8355,12 +8086,8 @@
       <c r="Z66" t="s">
         <v>599</v>
       </c>
-      <c r="AA66">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>253</v>
       </c>
@@ -8436,12 +8163,8 @@
       <c r="Y67" t="s">
         <v>582</v>
       </c>
-      <c r="AA67">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -8520,12 +8243,8 @@
       <c r="Z68" t="s">
         <v>577</v>
       </c>
-      <c r="AA68">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>256</v>
       </c>
@@ -8601,12 +8320,8 @@
       <c r="Y69" t="s">
         <v>508</v>
       </c>
-      <c r="AA69">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>259</v>
       </c>
@@ -8685,12 +8400,8 @@
       <c r="Z70" t="s">
         <v>602</v>
       </c>
-      <c r="AA70">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>262</v>
       </c>
@@ -8766,12 +8477,8 @@
       <c r="Y71" t="s">
         <v>560</v>
       </c>
-      <c r="AA71">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>264</v>
       </c>
@@ -8847,12 +8554,8 @@
       <c r="Y72" t="s">
         <v>560</v>
       </c>
-      <c r="AA72">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>266</v>
       </c>
@@ -8931,12 +8634,8 @@
       <c r="Z73" t="s">
         <v>269</v>
       </c>
-      <c r="AA73">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>270</v>
       </c>
@@ -9012,12 +8711,8 @@
       <c r="Y74" t="s">
         <v>560</v>
       </c>
-      <c r="AA74">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -9088,14 +8783,10 @@
         <v>558</v>
       </c>
       <c r="Y75" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA75">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -9171,12 +8862,8 @@
       <c r="Y76" t="s">
         <v>601</v>
       </c>
-      <c r="AA76">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>279</v>
       </c>
@@ -9252,12 +8939,8 @@
       <c r="Y77" t="s">
         <v>591</v>
       </c>
-      <c r="AA77">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -9336,12 +9019,8 @@
       <c r="Z78" t="s">
         <v>580</v>
       </c>
-      <c r="AA78">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>287</v>
       </c>
@@ -9415,17 +9094,13 @@
         <v>558</v>
       </c>
       <c r="Y79" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Z79" t="s">
         <v>468</v>
       </c>
-      <c r="AA79">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>290</v>
       </c>
@@ -9501,12 +9176,8 @@
       <c r="Y80" t="s">
         <v>560</v>
       </c>
-      <c r="AA80">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>477</v>
       </c>
@@ -9585,12 +9256,8 @@
       <c r="Z81" t="s">
         <v>572</v>
       </c>
-      <c r="AA81">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>471</v>
       </c>
@@ -9669,12 +9336,8 @@
       <c r="Z82" t="s">
         <v>584</v>
       </c>
-      <c r="AA82">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -9748,14 +9411,10 @@
         <v>558</v>
       </c>
       <c r="Y83" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA83">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>297</v>
       </c>
@@ -9829,17 +9488,13 @@
         <v>558</v>
       </c>
       <c r="Y84" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Z84" t="s">
         <v>510</v>
       </c>
-      <c r="AA84">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>299</v>
       </c>
@@ -9918,12 +9573,8 @@
       <c r="Z85" t="s">
         <v>600</v>
       </c>
-      <c r="AA85">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>302</v>
       </c>
@@ -10002,12 +9653,8 @@
       <c r="Z86" t="s">
         <v>468</v>
       </c>
-      <c r="AA86">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>305</v>
       </c>
@@ -10081,14 +9728,10 @@
         <v>558</v>
       </c>
       <c r="Y87" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA87">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>308</v>
       </c>
@@ -10162,14 +9805,10 @@
         <v>9000</v>
       </c>
       <c r="Y88" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA88">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>311</v>
       </c>
@@ -10245,12 +9884,8 @@
       <c r="Y89" t="s">
         <v>591</v>
       </c>
-      <c r="AA89">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>314</v>
       </c>
@@ -10326,12 +9961,8 @@
       <c r="Y90" t="s">
         <v>601</v>
       </c>
-      <c r="AA90">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>317</v>
       </c>
@@ -10405,14 +10036,10 @@
         <v>558</v>
       </c>
       <c r="Y91" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA91">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>319</v>
       </c>
@@ -10488,12 +10115,8 @@
       <c r="Y92" t="s">
         <v>576</v>
       </c>
-      <c r="AA92">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>322</v>
       </c>
@@ -10569,12 +10192,8 @@
       <c r="Y93" t="s">
         <v>559</v>
       </c>
-      <c r="AA93">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>325</v>
       </c>
@@ -10650,12 +10269,8 @@
       <c r="Y94" t="s">
         <v>508</v>
       </c>
-      <c r="AA94">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>328</v>
       </c>
@@ -10731,12 +10346,8 @@
       <c r="Y95" t="s">
         <v>582</v>
       </c>
-      <c r="AA95">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>331</v>
       </c>
@@ -10812,12 +10423,8 @@
       <c r="Y96" t="s">
         <v>582</v>
       </c>
-      <c r="AA96">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>334</v>
       </c>
@@ -10893,12 +10500,8 @@
       <c r="Y97" t="s">
         <v>591</v>
       </c>
-      <c r="AA97">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>337</v>
       </c>
@@ -10977,12 +10580,8 @@
       <c r="Z98" t="s">
         <v>574</v>
       </c>
-      <c r="AA98">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>339</v>
       </c>
@@ -11058,12 +10657,8 @@
       <c r="Y99" t="s">
         <v>553</v>
       </c>
-      <c r="AA99">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>342</v>
       </c>
@@ -11139,12 +10734,8 @@
       <c r="Y100" t="s">
         <v>582</v>
       </c>
-      <c r="AA100">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>345</v>
       </c>
@@ -11220,12 +10811,8 @@
       <c r="Y101" t="s">
         <v>601</v>
       </c>
-      <c r="AA101">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>348</v>
       </c>
@@ -11301,12 +10888,8 @@
       <c r="Y102" t="s">
         <v>601</v>
       </c>
-      <c r="AA102">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>351</v>
       </c>
@@ -11382,12 +10965,8 @@
       <c r="Y103" t="s">
         <v>591</v>
       </c>
-      <c r="AA103">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>354</v>
       </c>
@@ -11461,14 +11040,10 @@
         <v>558</v>
       </c>
       <c r="Y104" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA104">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>357</v>
       </c>
@@ -11542,14 +11117,10 @@
         <v>18216</v>
       </c>
       <c r="Y105" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA105">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>360</v>
       </c>
@@ -11625,12 +11196,8 @@
       <c r="Y106" t="s">
         <v>570</v>
       </c>
-      <c r="AA106">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>363</v>
       </c>
@@ -11706,12 +11273,8 @@
       <c r="Y107" t="s">
         <v>576</v>
       </c>
-      <c r="AA107">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>365</v>
       </c>
@@ -11787,12 +11350,8 @@
       <c r="Y108" t="s">
         <v>507</v>
       </c>
-      <c r="AA108">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>367</v>
       </c>
@@ -11868,12 +11427,8 @@
       <c r="Y109" t="s">
         <v>507</v>
       </c>
-      <c r="AA109">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>370</v>
       </c>
@@ -11949,12 +11504,8 @@
       <c r="Y110" t="s">
         <v>589</v>
       </c>
-      <c r="AA110">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>373</v>
       </c>
@@ -12033,12 +11584,8 @@
       <c r="Z111" t="s">
         <v>583</v>
       </c>
-      <c r="AA111">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>377</v>
       </c>
@@ -12117,12 +11664,8 @@
       <c r="Z112" t="s">
         <v>583</v>
       </c>
-      <c r="AA112">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>380</v>
       </c>
@@ -12201,12 +11744,8 @@
       <c r="Z113" t="s">
         <v>562</v>
       </c>
-      <c r="AA113">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>388</v>
       </c>
@@ -12282,12 +11821,8 @@
       <c r="Y114" t="s">
         <v>512</v>
       </c>
-      <c r="AA114">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>385</v>
       </c>
@@ -12363,12 +11898,8 @@
       <c r="Y115" t="s">
         <v>560</v>
       </c>
-      <c r="AA115">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>389</v>
       </c>
@@ -12442,14 +11973,10 @@
         <v>558</v>
       </c>
       <c r="Y116" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA116">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>391</v>
       </c>
@@ -12528,12 +12055,8 @@
       <c r="Z117" t="s">
         <v>468</v>
       </c>
-      <c r="AA117">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>394</v>
       </c>
@@ -12612,12 +12135,8 @@
       <c r="Z118" t="s">
         <v>563</v>
       </c>
-      <c r="AA118">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>396</v>
       </c>
@@ -12693,12 +12212,8 @@
       <c r="Y119" t="s">
         <v>582</v>
       </c>
-      <c r="AA119">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>399</v>
       </c>
@@ -12774,12 +12289,8 @@
       <c r="Y120" t="s">
         <v>576</v>
       </c>
-      <c r="AA120">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -12858,12 +12369,8 @@
       <c r="Z121" t="s">
         <v>603</v>
       </c>
-      <c r="AA121">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>405</v>
       </c>
@@ -12939,12 +12446,8 @@
       <c r="Y122" t="s">
         <v>560</v>
       </c>
-      <c r="AA122">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>408</v>
       </c>
@@ -13020,12 +12523,8 @@
       <c r="Y123" t="s">
         <v>554</v>
       </c>
-      <c r="AA123">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>413</v>
       </c>
@@ -13101,12 +12600,8 @@
       <c r="Y124" t="s">
         <v>560</v>
       </c>
-      <c r="AA124">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -13182,12 +12677,8 @@
       <c r="Y125" t="s">
         <v>570</v>
       </c>
-      <c r="AA125">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>482</v>
       </c>
@@ -13266,12 +12757,8 @@
       <c r="Z126" t="s">
         <v>420</v>
       </c>
-      <c r="AA126">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>421</v>
       </c>
@@ -13347,12 +12834,8 @@
       <c r="Y127" t="s">
         <v>560</v>
       </c>
-      <c r="AA127">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>424</v>
       </c>
@@ -13428,12 +12911,8 @@
       <c r="Y128" t="s">
         <v>582</v>
       </c>
-      <c r="AA128">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>426</v>
       </c>
@@ -13509,12 +12988,8 @@
       <c r="Y129" t="s">
         <v>570</v>
       </c>
-      <c r="AA129">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -13590,12 +13065,8 @@
       <c r="Y130" t="s">
         <v>576</v>
       </c>
-      <c r="AA130">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>431</v>
       </c>
@@ -13671,12 +13142,8 @@
       <c r="Y131" t="s">
         <v>582</v>
       </c>
-      <c r="AA131">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>433</v>
       </c>
@@ -13752,12 +13219,8 @@
       <c r="Y132" t="s">
         <v>582</v>
       </c>
-      <c r="AA132">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>435</v>
       </c>
@@ -13836,12 +13299,8 @@
       <c r="Z133" t="s">
         <v>575</v>
       </c>
-      <c r="AA133">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>439</v>
       </c>
@@ -13920,12 +13379,8 @@
       <c r="Z134" t="s">
         <v>585</v>
       </c>
-      <c r="AA134">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>495</v>
       </c>
@@ -14001,12 +13456,8 @@
       <c r="Y135" t="s">
         <v>589</v>
       </c>
-      <c r="AA135">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>492</v>
       </c>
@@ -14082,12 +13533,8 @@
       <c r="Y136" t="s">
         <v>591</v>
       </c>
-      <c r="AA136">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>483</v>
       </c>
@@ -14163,12 +13610,8 @@
       <c r="Y137" t="s">
         <v>601</v>
       </c>
-      <c r="AA137">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>481</v>
       </c>
@@ -14244,12 +13687,8 @@
       <c r="Y138" t="s">
         <v>573</v>
       </c>
-      <c r="AA138">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>485</v>
       </c>
@@ -14325,12 +13764,8 @@
       <c r="Y139" t="s">
         <v>553</v>
       </c>
-      <c r="AA139">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>488</v>
       </c>
@@ -14406,12 +13841,8 @@
       <c r="Y140" t="s">
         <v>553</v>
       </c>
-      <c r="AA140">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>497</v>
       </c>
@@ -14490,12 +13921,8 @@
       <c r="Z141" t="s">
         <v>590</v>
       </c>
-      <c r="AA141">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>489</v>
       </c>
@@ -14570,10 +13997,6 @@
       </c>
       <c r="Y142" t="s">
         <v>601</v>
-      </c>
-      <c r="AA142">
-        <f>COUNTBLANK(Table2[[#This Row],[Website Secure]:[access date]])</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14592,16 +14015,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L143:L1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA142">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-        <color rgb="FFFF0000"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:D1 C2:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -14810,10 +14223,10 @@
         <v>588</v>
       </c>
       <c r="I1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K1" t="s">
         <v>57</v>
@@ -16636,16 +16049,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" t="s">
         <v>615</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>616</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>617</v>
-      </c>
-      <c r="D1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -16653,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -16667,7 +16080,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -16681,7 +16094,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -16695,7 +16108,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -16709,7 +16122,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -16723,7 +16136,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -16737,7 +16150,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -16751,7 +16164,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -16765,7 +16178,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -16779,7 +16192,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -16793,7 +16206,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -16807,7 +16220,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -16821,7 +16234,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -16835,7 +16248,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -16849,7 +16262,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -16863,7 +16276,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -16877,7 +16290,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -16891,7 +16304,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -16905,7 +16318,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -16919,7 +16332,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -16933,7 +16346,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -16947,7 +16360,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -16961,7 +16374,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -16975,7 +16388,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -16989,7 +16402,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -17003,7 +16416,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -17017,7 +16430,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -17031,7 +16444,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -17045,7 +16458,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -17059,7 +16472,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -17073,7 +16486,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -17087,7 +16500,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -17101,7 +16514,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -17115,7 +16528,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -17129,7 +16542,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -17143,7 +16556,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -17157,7 +16570,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -17171,7 +16584,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C39">
         <v>2021</v>
@@ -17185,7 +16598,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C40">
         <v>2021</v>
@@ -17199,7 +16612,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -17213,7 +16626,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C42">
         <v>2021</v>
@@ -17227,7 +16640,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -17241,7 +16654,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -17255,7 +16668,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C45">
         <v>2021</v>
@@ -17269,7 +16682,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -17283,7 +16696,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -17297,7 +16710,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -17311,7 +16724,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -17325,7 +16738,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -17339,7 +16752,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -17353,7 +16766,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -17367,7 +16780,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -17414,16 +16827,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" t="s">
         <v>615</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>616</v>
       </c>
-      <c r="C1" t="s">
-        <v>617</v>
-      </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -17431,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -17445,7 +16858,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -17459,7 +16872,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -17473,7 +16886,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -17487,7 +16900,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -17501,7 +16914,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -17515,7 +16928,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -17529,7 +16942,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C9">
         <v>2021</v>
@@ -17543,7 +16956,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C10">
         <v>2021</v>
@@ -17557,7 +16970,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C11">
         <v>2021</v>
@@ -17571,7 +16984,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -17585,7 +16998,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -17599,7 +17012,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C14">
         <v>2021</v>
@@ -17613,7 +17026,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C15">
         <v>2021</v>
@@ -17627,7 +17040,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C16">
         <v>2021</v>
@@ -17641,7 +17054,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -17655,7 +17068,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -17669,7 +17082,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -17683,7 +17096,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -17697,7 +17110,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -17711,7 +17124,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -17725,7 +17138,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -17739,7 +17152,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -17753,7 +17166,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -17767,7 +17180,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -17781,7 +17194,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -17795,7 +17208,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -17809,7 +17222,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -17823,7 +17236,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -17837,7 +17250,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -17851,7 +17264,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -17865,7 +17278,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -17879,7 +17292,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -17893,7 +17306,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -17907,7 +17320,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -17921,7 +17334,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -17935,7 +17348,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -17949,7 +17362,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C39">
         <v>2021</v>
@@ -17963,7 +17376,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C40">
         <v>2021</v>
@@ -17977,7 +17390,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -17991,7 +17404,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C42">
         <v>2021</v>
@@ -18005,7 +17418,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -18019,7 +17432,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -18033,7 +17446,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C45">
         <v>2021</v>
@@ -18047,7 +17460,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -18061,7 +17474,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -18075,7 +17488,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -18089,7 +17502,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -18103,7 +17516,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -18117,7 +17530,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -18131,7 +17544,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -18145,7 +17558,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -18625,7 +18038,7 @@
         <v>595</v>
       </c>
       <c r="C32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E32" t="s">
         <v>543</v>
@@ -18639,7 +18052,7 @@
         <v>588</v>
       </c>
       <c r="C33" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E33" t="s">
         <v>543</v>
@@ -18650,13 +18063,13 @@
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
